--- a/addons/Warehouse/backend/resources/excel/石料其他入库单模板导入.xlsx
+++ b/addons/Warehouse/backend/resources/excel/石料其他入库单模板导入.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="78">
   <si>
     <t>供应商</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -331,10 +331,6 @@
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -663,6 +659,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -699,7 +696,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -972,7 +968,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -980,129 +976,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
-    <col min="8" max="10" width="12.75" customWidth="1"/>
-    <col min="11" max="11" width="19.125" customWidth="1"/>
-    <col min="19" max="19" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="19.125" customWidth="1"/>
+    <col min="18" max="18" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1" ht="262.89999999999998" customHeight="1">
+    <row r="1" spans="1:20" s="4" customFormat="1" ht="262.89999999999998" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>72</v>
       </c>
+      <c r="B1" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="C1" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>78</v>
+      <c r="H1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5" t="s">
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="16.5">
+    <row r="2" spans="1:20" ht="16.5">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="41" t="s">
-        <v>76</v>
+      <c r="R2" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" s="1" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1237,63 +1230,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24.75">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" ht="21">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="16.5">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="34"/>
+      <c r="L3" s="35"/>
     </row>
     <row r="4" spans="1:12" ht="16.5">
       <c r="A4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="35"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -1465,12 +1458,12 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="16.5">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
@@ -1492,10 +1485,10 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="16.5">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="29"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="10"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
@@ -1545,63 +1538,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24.75">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" ht="21">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="16.5">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="34"/>
+      <c r="L3" s="35"/>
     </row>
     <row r="4" spans="1:12" ht="16.5">
       <c r="A4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="35"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -1773,12 +1766,12 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="16.5">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
@@ -1800,10 +1793,10 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="16.5">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="29"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="28" t="s">
         <v>68</v>
       </c>
@@ -1822,24 +1815,24 @@
       <c r="L10" s="26"/>
     </row>
     <row r="19" spans="3:6">
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
     </row>
     <row r="20" spans="3:6">
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
     </row>
     <row r="21" spans="3:6">
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/addons/Warehouse/backend/resources/excel/石料其他入库单模板导入.xlsx
+++ b/addons/Warehouse/backend/resources/excel/石料其他入库单模板导入.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="79">
   <si>
     <t>供应商</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -346,6 +346,10 @@
   </si>
   <si>
     <t>【不填自动计算金料总重*金料单价】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【圆形,椭圆形,公主方形,八角梯形,心形,马眼形,枕形,水滴形,祖母绿形,阿斯切,雷迪恩形,圆三角形,圆形(弧面),椭圆(蛋形-弧面),异形(弧面),球体(弧面),心形(弧面),不规则(弧面),三角形,梯方形,长方形,其它】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -968,7 +972,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -976,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -995,7 +999,7 @@
     <col min="18" max="18" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1" ht="262.89999999999998" customHeight="1">
+    <row r="1" spans="1:19" s="4" customFormat="1" ht="262.89999999999998" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>72</v>
       </c>
@@ -1010,6 +1014,9 @@
       </c>
       <c r="H1" s="4" t="s">
         <v>77</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>35</v>
@@ -1037,7 +1044,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="16.5">
+    <row r="2" spans="1:19" ht="16.5">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -1093,9 +1100,6 @@
         <v>22</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" s="1" t="s">
         <v>73</v>
       </c>
     </row>

--- a/addons/Warehouse/backend/resources/excel/石料其他入库单模板导入.xlsx
+++ b/addons/Warehouse/backend/resources/excel/石料其他入库单模板导入.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="80">
   <si>
     <t>供应商</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -350,6 +350,10 @@
   </si>
   <si>
     <t>【圆形,椭圆形,公主方形,八角梯形,心形,马眼形,枕形,水滴形,祖母绿形,阿斯切,雷迪恩形,圆三角形,圆形(弧面),椭圆(蛋形-弧面),异形(弧面),球体(弧面),心形(弧面),不规则(弧面),三角形,梯方形,长方形,其它】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证书号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -972,7 +976,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -980,10 +984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S1048576"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -996,10 +1000,10 @@
     <col min="6" max="6" width="13.125" customWidth="1"/>
     <col min="7" max="9" width="12.75" customWidth="1"/>
     <col min="10" max="10" width="19.125" customWidth="1"/>
-    <col min="18" max="18" width="13.125" customWidth="1"/>
+    <col min="18" max="19" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" ht="262.89999999999998" customHeight="1">
+    <row r="1" spans="1:20" s="4" customFormat="1" ht="262.89999999999998" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>72</v>
       </c>
@@ -1043,8 +1047,9 @@
       <c r="R1" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="16.5">
+      <c r="S1" s="5"/>
+    </row>
+    <row r="2" spans="1:20" ht="16.5">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -1100,6 +1105,9 @@
         <v>22</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>73</v>
       </c>
     </row>

--- a/addons/Warehouse/backend/resources/excel/石料其他入库单模板导入.xlsx
+++ b/addons/Warehouse/backend/resources/excel/石料其他入库单模板导入.xlsx
@@ -19,11 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>石料名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>颜色</t>
   </si>
@@ -31,18 +27,6 @@
     <t>净度</t>
   </si>
   <si>
-    <t>石头规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单价/ct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>切工</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,10 +44,6 @@
   </si>
   <si>
     <t>石料色彩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总石重(ct)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -80,73 +60,98 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>【不填默认：从款式带出】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fair】Poor】VG】GD】</t>
+  </si>
+  <si>
+    <t>EX】Fair】Poor】VG】GD】</t>
+  </si>
+  <si>
+    <t>EX】VG】GD】Fair】Poor】</t>
+  </si>
+  <si>
+    <t>白色】黑色】红色】绿色】蓝色】红色】粉色】紫色】</t>
+  </si>
+  <si>
+    <t>D】E】F】G】H】GH】I】J】K】IJ】L】M】N】不分级】其它】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华鉴鉴定证书】国检NCTC】GRA】武地大GIC】工商联证书】GIA】HRD】EGL】IGI】AGS】其它】</t>
+  </si>
+  <si>
+    <t>石料编号/批次号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【不填自动生成】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形状</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含税总额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【不填自动计算金料总重*金料单价】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【圆形,椭圆形,公主方形,八角梯形,心形,马眼形,枕形,水滴形,祖母绿形,阿斯切,雷迪恩形,圆三角形,圆形(弧面),椭圆(蛋形-弧面),异形(弧面),球体(弧面),心形(弧面),不规则(弧面),三角形,梯方形,长方形,其它】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证书号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FL】IF】VVS1】VVS2】VS1】VS2】SI1】SI2】P1】SI】P2】P3】不分级】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None】Medium】Strong】Very Strong】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石料尺寸(mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石头规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>【可填写直径，或长宽高尺寸】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>【不填默认：从款式带出】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fair】Poor】VG】GD】</t>
-  </si>
-  <si>
-    <t>EX】Fair】Poor】VG】GD】</t>
-  </si>
-  <si>
-    <t>EX】VG】GD】Fair】Poor】</t>
-  </si>
-  <si>
-    <t>白色】黑色】红色】绿色】蓝色】红色】粉色】紫色】</t>
-  </si>
-  <si>
-    <t>D】E】F】G】H】GH】I】J】K】IJ】L】M】N】不分级】其它】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华鉴鉴定证书】国检NCTC】GRA】武地大GIC】工商联证书】GIA】HRD】EGL】IGI】AGS】其它】</t>
-  </si>
-  <si>
-    <t>石料编号/批次号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【不填自动生成】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>形状</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石料尺寸(mm)</t>
-  </si>
-  <si>
-    <t>含税总额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【不填自动计算金料总重*金料单价】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【圆形,椭圆形,公主方形,八角梯形,心形,马眼形,枕形,水滴形,祖母绿形,阿斯切,雷迪恩形,圆三角形,圆形(弧面),椭圆(蛋形-弧面),异形(弧面),球体(弧面),心形(弧面),不规则(弧面),三角形,梯方形,长方形,其它】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>证书号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FL】IF】VVS1】VVS2】VS1】VS2】SI1】SI2】P1】SI】P2】P3】不分级】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None】Medium】Strong】Very Strong】</t>
+    <t>请填写数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*石料名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*总石重(ct)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*单价/ct</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -154,7 +159,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,8 +184,31 @@
     <font>
       <sz val="11"/>
       <color rgb="FF37474F"/>
-      <name val="Arial"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -224,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -233,10 +261,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -509,7 +539,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -519,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -538,110 +568,120 @@
   <sheetData>
     <row r="1" spans="1:20" s="3" customFormat="1" ht="262.89999999999998" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" ht="16.5">
       <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="P2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="S2" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/addons/Warehouse/backend/resources/excel/石料其他入库单模板导入.xlsx
+++ b/addons/Warehouse/backend/resources/excel/石料其他入库单模板导入.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
@@ -539,7 +539,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -547,10 +547,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/addons/Warehouse/backend/resources/excel/石料其他入库单模板导入.xlsx
+++ b/addons/Warehouse/backend/resources/excel/石料其他入库单模板导入.xlsx
@@ -139,10 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*石料名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>*数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,6 +148,10 @@
   </si>
   <si>
     <t>*单价/ct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石料名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -199,16 +199,16 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -263,10 +263,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -539,7 +539,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -551,7 +551,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -630,20 +630,20 @@
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>31</v>
+      <c r="C2" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>21</v>
